--- a/R Model - Regressions/R Code Diss/Output_2/Coef Comparison.xlsx
+++ b/R Model - Regressions/R Code Diss/Output_2/Coef Comparison.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\EMAP\101 Dissertation\Dissertation\R Model - Regressions\R Code Diss\Output_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4ACAAC6-B017-417F-B2E5-68D362662B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A072566F-4E20-40F9-AF78-D1D5F6806787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LASSO" sheetId="1" r:id="rId1"/>
     <sheet name="Linear" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="76">
   <si>
     <t>Income</t>
   </si>
@@ -204,14 +217,59 @@
   </si>
   <si>
     <t>Income + Price Log</t>
+  </si>
+  <si>
+    <t>Commodity 1</t>
+  </si>
+  <si>
+    <t>Commodity 2</t>
+  </si>
+  <si>
+    <t>Commodity 3</t>
+  </si>
+  <si>
+    <t>Commodity 4</t>
+  </si>
+  <si>
+    <t>Commodity 5</t>
+  </si>
+  <si>
+    <t>Commodity 6</t>
+  </si>
+  <si>
+    <t>Commodity 8</t>
+  </si>
+  <si>
+    <t>Commodity 9</t>
+  </si>
+  <si>
+    <t>Commodity 10</t>
+  </si>
+  <si>
+    <t>Commodity 11</t>
+  </si>
+  <si>
+    <t>Commodity 12</t>
+  </si>
+  <si>
+    <t>Commodity 7.1</t>
+  </si>
+  <si>
+    <t>Commodity 7 - Other</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -750,10 +808,10 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1117,7 +1175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2461,6 +2519,18 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C4:O16">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:O20">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2483,28 +2553,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:O20">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:BH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="AB6" workbookViewId="0">
+      <selection activeCell="AZ24" sqref="AZ24:AZ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2515,10 +2573,12 @@
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
@@ -2527,8 +2587,16 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="K3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2536,9 +2604,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -2561,8 +2629,23 @@
       <c r="M4" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2590,8 +2673,27 @@
       <c r="M5" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>IF(ABS(C5)&gt;0.05,ROUND(C5,3),C5)</f>
+        <v>4.1792216438880898E-50</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.6964382299072901E-49</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7.9638211231318699E-67</v>
+      </c>
+      <c r="T5" s="1">
+        <v>6.3545070717007304E-67</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2619,8 +2721,27 @@
       <c r="M6" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" ref="Q6:Q17" si="0">IF(ABS(C6)&gt;0.05,ROUND(C6,3),C6)</f>
+        <v>2.3588380212088999E-39</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2.1768016008661201E-43</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.61806584249962E-43</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.5307690544442799E-48</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2648,8 +2769,27 @@
       <c r="M7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1102924384890599E-12</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2.4643080969714299E-14</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2677,8 +2817,27 @@
       <c r="M8" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5462831217552E-58</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.55622671694348E-62</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7.2067187113599798E-65</v>
+      </c>
+      <c r="T8" s="1">
+        <v>6.57433936293037E-72</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2697,8 +2856,27 @@
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6669220075118903E-5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2.4232274730191301E-4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2717,8 +2895,27 @@
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.18318918815063701</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2737,8 +2934,27 @@
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3343844118915906E-20</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4.1866297044074001E-19</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2.5504105735679201E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5.9643098721876703E-2</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -2757,8 +2973,27 @@
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7196973260592001E-29</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2.50415780087329E-31</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2777,8 +3012,27 @@
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9346862776505798E-22</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4.6826684076341298E-35</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1.2330392504339601E-30</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.43356180886662E-49</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -2797,8 +3051,27 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9045562480456298E-30</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1.13066496599493E-30</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2817,8 +3090,27 @@
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.18187823368403E-9</v>
+      </c>
+      <c r="R15" s="1">
+        <v>9.1466336539462394E-9</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2837,8 +3129,27 @@
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="P16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7890078355279501E-35</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2.3321441723948702E-34</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
@@ -2857,8 +3168,27 @@
       <c r="G17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.21681410832654E-13</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3.7887592284159201E-16</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:60" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -2890,8 +3220,39 @@
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-    </row>
-    <row r="21" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AF19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+    </row>
+    <row r="21" spans="2:60" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>40</v>
       </c>
@@ -2926,8 +3287,42 @@
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AL21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AT21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="8"/>
+      <c r="BB21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="8"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+    </row>
+    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
@@ -2994,10 +3389,76 @@
       <c r="AD23" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AG23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1">
         <v>0.118374738794708</v>
@@ -3012,7 +3473,7 @@
         <v>0.96928076097820604</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I24" s="1">
         <v>20.077008387541099</v>
@@ -3033,7 +3494,7 @@
         <v>0.94416248404611702</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="1">
         <v>43.8235567341871</v>
@@ -3054,7 +3515,7 @@
         <v>-7.4554510697537602E-3</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="Y24" s="1">
         <v>-133.47901962539399</v>
@@ -3074,10 +3535,103 @@
       <c r="AD24" s="1">
         <v>0.97090395085374703</v>
       </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG24" s="1">
+        <f>ROUND(C24,3)</f>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>4.5137904254144702E-92</v>
+      </c>
+      <c r="AI24" s="1">
+        <f>ROUND(E24,3)</f>
+        <v>0.97</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f>ROUND(F24,3)</f>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM24" s="1">
+        <f>IF(ABS(I24)&gt;1,IF(ABS(I24)&gt;10,ROUND(I24,1),ROUND(I24,2)),ROUND(I24,3))</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>4.17922164388755E-50</v>
+      </c>
+      <c r="AO24" s="1">
+        <f>IF(ABS(K24)&gt;1,IF(ABS(K24)&gt;10,ROUND(K24,1),ROUND(K24,2)),ROUND(K24,3))</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>5.3659029173512097E-76</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f>IF(ABS(M24)&gt;1,IF(ABS(M24)&gt;10,ROUND(M24,1),ROUND(M24,2)),ROUND(M24,3))</f>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AR24" s="1">
+        <f>IF(ABS(N24)&gt;1,IF(ABS(N24)&gt;10,ROUND(N24,1),ROUND(N24,2)),ROUND(N24,3))</f>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="AT24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU24" s="1">
+        <f>IF(ABS(Q24)&gt;1,IF(ABS(Q24)&gt;10,ROUND(Q24,1),ROUND(Q24,2)),ROUND(Q24,3))</f>
+        <v>43.8</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>5.8268766439771899E-2</v>
+      </c>
+      <c r="AW24" s="1">
+        <f>IF(ABS(S24)&gt;1,IF(ABS(S24)&gt;10,ROUND(S24,1),ROUND(S24,2)),ROUND(S24,3))</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>0.73033737047302605</v>
+      </c>
+      <c r="AY24" s="1">
+        <f>IF(ABS(U24)&gt;1,IF(ABS(U24)&gt;10,ROUND(U24,1),ROUND(U24,2)),ROUND(U24,3))</f>
+        <v>1E-3</v>
+      </c>
+      <c r="AZ24" s="1">
+        <f>IF(ABS(V24)&gt;1,IF(ABS(V24)&gt;10,ROUND(V24,1),ROUND(V24,2)),ROUND(V24,3))</f>
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="BB24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC24" s="1">
+        <f>IF(ABS(Y24)&gt;1,IF(ABS(Y24)&gt;10,ROUND(Y24,1),ROUND(Y24,2)),ROUND(Y24,3))</f>
+        <v>-133.5</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>2.0096131071280699E-76</v>
+      </c>
+      <c r="BE24" s="1">
+        <f>IF(ABS(AA24)&gt;1,IF(ABS(AA24)&gt;10,ROUND(AA24,1),ROUND(AA24,2)),ROUND(AA24,3))</f>
+        <v>31.5</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>1.05027655651423E-92</v>
+      </c>
+      <c r="BG24" s="1">
+        <f>IF(ABS(AC24)&gt;1,IF(ABS(AC24)&gt;10,ROUND(AC24,1),ROUND(AC24,2)),ROUND(AC24,3))</f>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="BH24" s="1">
+        <f>IF(ABS(AD24)&gt;1,IF(ABS(AD24)&gt;10,ROUND(AD24,1),ROUND(AD24,2)),ROUND(AD24,3))</f>
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1">
         <v>2.47834044098563E-2</v>
@@ -3092,7 +3646,7 @@
         <v>0.95967877610437702</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I25" s="1">
         <v>4.6085324296352104</v>
@@ -3113,7 +3667,7 @@
         <v>0.88335955889859197</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="1">
         <v>12.3361411760668</v>
@@ -3134,7 +3688,7 @@
         <v>-3.75009688262007E-3</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="Y25" s="1">
         <v>-25.790168077524001</v>
@@ -3154,10 +3708,103 @@
       <c r="AD25" s="1">
         <v>0.90081719453572195</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG25" s="1">
+        <f t="shared" ref="AG25:AJ36" si="1">ROUND(C25,3)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>4.8415169128640997E-85</v>
+      </c>
+      <c r="AI25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" ref="AM25:AR36" si="2">IF(ABS(I25)&gt;1,IF(ABS(I25)&gt;10,ROUND(I25,1),ROUND(I25,2)),ROUND(I25,3))</f>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>2.3588380212086999E-39</v>
+      </c>
+      <c r="AO25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>4.16068718506927E-57</v>
+      </c>
+      <c r="AQ25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AR25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="AT25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU25" s="1">
+        <f t="shared" ref="AU25:AU36" si="3">IF(ABS(Q25)&gt;1,IF(ABS(Q25)&gt;10,ROUND(Q25,1),ROUND(Q25,2)),ROUND(Q25,3))</f>
+        <v>12.3</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>4.1524646797901899E-9</v>
+      </c>
+      <c r="AW25" s="1">
+        <f t="shared" ref="AW25:AW36" si="4">IF(ABS(S25)&gt;1,IF(ABS(S25)&gt;10,ROUND(S25,1),ROUND(S25,2)),ROUND(S25,3))</f>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>0.45759914344755198</v>
+      </c>
+      <c r="AY25" s="1">
+        <f t="shared" ref="AY25:AZ36" si="5">IF(ABS(U25)&gt;1,IF(ABS(U25)&gt;10,ROUND(U25,1),ROUND(U25,2)),ROUND(U25,3))</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AZ25" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="BB25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC25" s="1">
+        <f t="shared" ref="BC25:BC36" si="6">IF(ABS(Y25)&gt;1,IF(ABS(Y25)&gt;10,ROUND(Y25,1),ROUND(Y25,2)),ROUND(Y25,3))</f>
+        <v>-25.8</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>1.7327156935944899E-45</v>
+      </c>
+      <c r="BE25" s="1">
+        <f t="shared" ref="BE25:BE36" si="7">IF(ABS(AA25)&gt;1,IF(ABS(AA25)&gt;10,ROUND(AA25,1),ROUND(AA25,2)),ROUND(AA25,3))</f>
+        <v>6.23</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>2.88855434643594E-61</v>
+      </c>
+      <c r="BG25" s="1">
+        <f t="shared" ref="BG25:BH36" si="8">IF(ABS(AC25)&gt;1,IF(ABS(AC25)&gt;10,ROUND(AC25,1),ROUND(AC25,2)),ROUND(AC25,3))</f>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="BH25" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>5.4051690142204303E-2</v>
@@ -3172,7 +3819,7 @@
         <v>0.986522809625622</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I26" s="1">
         <v>-3.86739339834193</v>
@@ -3193,7 +3840,7 @@
         <v>0.964976128171672</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="1">
         <v>25.0416790427285</v>
@@ -3214,7 +3861,7 @@
         <v>-8.3988674111026302E-3</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Y26" s="1">
         <v>-117.97932198887599</v>
@@ -3234,10 +3881,103 @@
       <c r="AD26" s="1">
         <v>0.89362830743255794</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG26" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>2.2964102964815199E-113</v>
+      </c>
+      <c r="AI26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.87</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>1.11029243848896E-12</v>
+      </c>
+      <c r="AO26" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>5.9412411403951104E-88</v>
+      </c>
+      <c r="AQ26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AR26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AT26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU26" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>0.54298677256794803</v>
+      </c>
+      <c r="AW26" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.9E-2</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>0.92517067081347804</v>
+      </c>
+      <c r="AY26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="BB26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC26" s="1">
+        <f t="shared" si="6"/>
+        <v>-118</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>6.9294678597817193E-52</v>
+      </c>
+      <c r="BE26" s="1">
+        <f t="shared" si="7"/>
+        <v>23.6</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>1.8003771414185001E-59</v>
+      </c>
+      <c r="BG26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="BH26" s="1">
+        <f t="shared" si="8"/>
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1">
         <v>0.136126446931536</v>
@@ -3252,7 +3992,7 @@
         <v>0.92438542580364602</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1">
         <v>37.934724292315501</v>
@@ -3273,7 +4013,7 @@
         <v>0.79777008520641701</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="Q27" s="1">
         <v>20.9641586987611</v>
@@ -3294,7 +4034,7 @@
         <v>7.25200520224593E-2</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="Y27" s="1">
         <v>-82.318186638601404</v>
@@ -3314,10 +4054,103 @@
       <c r="AD27" s="1">
         <v>0.84651877126141595</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>8.7232270625590396E-69</v>
+      </c>
+      <c r="AI27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="2"/>
+        <v>37.9</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>8.5462831217549595E-58</v>
+      </c>
+      <c r="AO27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>5.5134199034130003E-43</v>
+      </c>
+      <c r="AQ27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="AR27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU27" s="1">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0.107238417051936</v>
+      </c>
+      <c r="AW27" s="1">
+        <f t="shared" si="4"/>
+        <v>0.436</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>1.7095902030584301E-3</v>
+      </c>
+      <c r="AY27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="AZ27" s="1">
+        <f t="shared" si="5"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="BB27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC27" s="1">
+        <f t="shared" si="6"/>
+        <v>-82.3</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>4.3320971808053896E-28</v>
+      </c>
+      <c r="BE27" s="1">
+        <f t="shared" si="7"/>
+        <v>24.6</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>4.5847033449686298E-50</v>
+      </c>
+      <c r="BG27" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="BH27" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
         <v>7.7695477367210705E-2</v>
@@ -3332,7 +4165,7 @@
         <v>0.983836747197534</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I28" s="1">
         <v>-3.63710178085715</v>
@@ -3353,7 +4186,7 @@
         <v>0.93962206739932197</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="1">
         <v>1.5504064936562301</v>
@@ -3374,7 +4207,7 @@
         <v>1.91199645572648E-3</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="Y28" s="1">
         <v>-156.66563212128</v>
@@ -3394,10 +4227,103 @@
       <c r="AD28" s="1">
         <v>0.83485065531132097</v>
       </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG28" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8E-2</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>1.1426839561466201E-108</v>
+      </c>
+      <c r="AI28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.64</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>7.6669220075112804E-5</v>
+      </c>
+      <c r="AO28" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>5.4179964287666697E-74</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="AR28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="AT28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.55</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0.953347797322317</v>
+      </c>
+      <c r="AW28" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0.27005705478370001</v>
+      </c>
+      <c r="AY28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="AZ28" s="1">
+        <f t="shared" si="5"/>
+        <v>2E-3</v>
+      </c>
+      <c r="BB28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC28" s="1">
+        <f t="shared" si="6"/>
+        <v>-156.69999999999999</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>1.3870950599210801E-40</v>
+      </c>
+      <c r="BE28" s="1">
+        <f t="shared" si="7"/>
+        <v>31.8</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>3.4810486992380101E-48</v>
+      </c>
+      <c r="BG28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="BH28" s="1">
+        <f t="shared" si="8"/>
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>1.45416183534304E-2</v>
@@ -3412,7 +4338,7 @@
         <v>0.96465025690888695</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I29" s="1">
         <v>0.144260401742031</v>
@@ -3433,7 +4359,7 @@
         <v>0.83080236051515599</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="1">
         <v>0.959584243179188</v>
@@ -3454,7 +4380,7 @@
         <v>1.2334571725540399E-2</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="Y29" s="1">
         <v>-26.8937516999734</v>
@@ -3474,10 +4400,103 @@
       <c r="AD29" s="1">
         <v>0.80486809815453597</v>
       </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>1.92138905456441E-88</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0.58688909106567899</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>1.4563425934181901E-47</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AR29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AT29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0.76176509695777395</v>
+      </c>
+      <c r="AW29" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>0.117529956027319</v>
+      </c>
+      <c r="AY29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AZ29" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="BB29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC29" s="1">
+        <f t="shared" si="6"/>
+        <v>-26.9</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>7.1409622118125504E-36</v>
+      </c>
+      <c r="BE29" s="1">
+        <f t="shared" si="7"/>
+        <v>5.57</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>6.6687842165303504E-44</v>
+      </c>
+      <c r="BG29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="BH29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1">
         <v>5.5972801287979497E-2</v>
@@ -3492,7 +4511,7 @@
         <v>0.95122698120546301</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I30" s="1">
         <v>-10.096901692795001</v>
@@ -3513,7 +4532,7 @@
         <v>0.94002938766494204</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="1">
         <v>11.135412833452699</v>
@@ -3534,7 +4553,7 @@
         <v>-1.00898868197483E-2</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="Y30" s="1">
         <v>-151.885152779381</v>
@@ -3554,10 +4573,103 @@
       <c r="AD30" s="1">
         <v>0.86585914818028398</v>
       </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>5.7861363070890697E-67</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="2"/>
+        <v>-10.1</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>6.3343844118919505E-20</v>
+      </c>
+      <c r="AO30" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>6.6248146433163503E-62</v>
+      </c>
+      <c r="AQ30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AR30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="AT30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU30" s="1">
+        <f t="shared" si="3"/>
+        <v>11.1</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>0.90645230539502797</v>
+      </c>
+      <c r="AW30" s="1">
+        <f t="shared" si="4"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>0.91638601858661395</v>
+      </c>
+      <c r="AY30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.01</v>
+      </c>
+      <c r="BB30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC30" s="1">
+        <f t="shared" si="6"/>
+        <v>-151.9</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>6.4252164294413798E-40</v>
+      </c>
+      <c r="BE30" s="1">
+        <f t="shared" si="7"/>
+        <v>29.3</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>9.3312231371765705E-45</v>
+      </c>
+      <c r="BG30" s="1">
+        <f t="shared" si="8"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="BH30" s="1">
+        <f t="shared" si="8"/>
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1">
         <v>0.113216384999361</v>
@@ -3572,7 +4684,7 @@
         <v>0.98875327518415301</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1">
         <v>-10.776526769993</v>
@@ -3593,7 +4705,7 @@
         <v>0.98804350237730298</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="1">
         <v>31.155321790490198</v>
@@ -3614,7 +4726,7 @@
         <v>-9.47678470120694E-3</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="Y31" s="1">
         <v>-264.73224207166902</v>
@@ -3634,10 +4746,103 @@
       <c r="AD31" s="1">
         <v>0.92770897802697705</v>
       </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.113</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>1.6411234768724101E-98</v>
+      </c>
+      <c r="AI31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM31" s="1">
+        <f t="shared" si="2"/>
+        <v>-10.8</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>5.7196973260593301E-29</v>
+      </c>
+      <c r="AO31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>3.1210509293816801E-96</v>
+      </c>
+      <c r="AQ31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AR31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AT31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU31" s="1">
+        <f t="shared" si="3"/>
+        <v>31.2</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>0.53484127183751096</v>
+      </c>
+      <c r="AW31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>0.79101469579832295</v>
+      </c>
+      <c r="AY31" s="1">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AZ31" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="BB31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC31" s="1">
+        <f t="shared" si="6"/>
+        <v>-264.7</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>9.8212390450712003E-52</v>
+      </c>
+      <c r="BE31" s="1">
+        <f t="shared" si="7"/>
+        <v>52.4</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>6.3109586363221899E-58</v>
+      </c>
+      <c r="BG31" s="1">
+        <f t="shared" si="8"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="BH31" s="1">
+        <f t="shared" si="8"/>
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1">
         <v>3.17944725140588E-2</v>
@@ -3652,7 +4857,7 @@
         <v>0.969230295015309</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I32" s="1">
         <v>4.3420329715981802</v>
@@ -3673,7 +4878,7 @@
         <v>0.87311073408805895</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Q32" s="1">
         <v>-3.1881685833987898</v>
@@ -3694,7 +4899,7 @@
         <v>8.8289166340610098E-2</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="Y32" s="1">
         <v>-41.374136624241899</v>
@@ -3714,10 +4919,103 @@
       <c r="AD32" s="1">
         <v>0.90879152749026004</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG32" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>4.9770123748493502E-92</v>
+      </c>
+      <c r="AI32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM32" s="1">
+        <f t="shared" si="2"/>
+        <v>4.34</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>3.9346862776509198E-22</v>
+      </c>
+      <c r="AO32" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>6.0199902290615997E-55</v>
+      </c>
+      <c r="AQ32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.874</v>
+      </c>
+      <c r="AR32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.873</v>
+      </c>
+      <c r="AT32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU32" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.19</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>0.50694093309368304</v>
+      </c>
+      <c r="AW32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>5.7571430858113705E-4</v>
+      </c>
+      <c r="AY32" s="1">
+        <f t="shared" si="5"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AZ32" s="1">
+        <f t="shared" si="5"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="BB32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC32" s="1">
+        <f t="shared" si="6"/>
+        <v>-41.4</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>2.5214700392373601E-50</v>
+      </c>
+      <c r="BE32" s="1">
+        <f t="shared" si="7"/>
+        <v>9.35</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>2.0471426088313101E-63</v>
+      </c>
+      <c r="BG32" s="1">
+        <f t="shared" si="8"/>
+        <v>0.91</v>
+      </c>
+      <c r="BH32" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1">
         <v>0.154653811368554</v>
@@ -3732,7 +5030,7 @@
         <v>0.99144882470189999</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I33" s="1">
         <v>-12.110386888182299</v>
@@ -3753,7 +5051,7 @@
         <v>0.98856825319311403</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="Q33" s="1">
         <v>-0.71509374550669802</v>
@@ -3774,7 +5072,7 @@
         <v>-5.1632029657580096E-3</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="Y33" s="1">
         <v>-340.33898919166899</v>
@@ -3794,10 +5092,103 @@
       <c r="AD33" s="1">
         <v>0.90569915997862804</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.155</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>4.0213186500322499E-125</v>
+      </c>
+      <c r="AI33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AJ33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM33" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.1</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>9.9045562480468994E-30</v>
+      </c>
+      <c r="AO33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>1.20205398069791E-116</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AR33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AT33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU33" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>0.99419510069065398</v>
+      </c>
+      <c r="AW33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>0.53416845423203696</v>
+      </c>
+      <c r="AY33" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AZ33" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="BB33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC33" s="1">
+        <f t="shared" si="6"/>
+        <v>-340.3</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>6.18394573214207E-55</v>
+      </c>
+      <c r="BE33" s="1">
+        <f t="shared" si="7"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>1.4662578421229499E-62</v>
+      </c>
+      <c r="BG33" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="BH33" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1">
         <v>2.5445220129651901E-2</v>
@@ -3812,7 +5203,7 @@
         <v>0.67709308270120105</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I34" s="1">
         <v>-9.5788289065399308</v>
@@ -3833,7 +5224,7 @@
         <v>0.61175792358379699</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="1">
         <v>0.84373096022663396</v>
@@ -3854,7 +5245,7 @@
         <v>2.3703721969831799E-2</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="Y34" s="1">
         <v>-82.357834791076002</v>
@@ -3874,10 +5265,103 @@
       <c r="AD34" s="1">
         <v>0.45162344047215902</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1.82440262784055E-30</v>
+      </c>
+      <c r="AI34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="AJ34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM34" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.58</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>3.1818782336840002E-9</v>
+      </c>
+      <c r="AO34" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>1.3522919166546201E-25</v>
+      </c>
+      <c r="AQ34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AR34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="AT34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>0.83963821528518501</v>
+      </c>
+      <c r="AW34" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>5.3182064045600198E-2</v>
+      </c>
+      <c r="AY34" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AZ34" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="BB34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC34" s="1">
+        <f t="shared" si="6"/>
+        <v>-82.4</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>1.2036515588093801E-14</v>
+      </c>
+      <c r="BE34" s="1">
+        <f t="shared" si="7"/>
+        <v>15.4</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>6.5691336258213701E-17</v>
+      </c>
+      <c r="BG34" s="1">
+        <f t="shared" si="8"/>
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="BH34" s="1">
+        <f t="shared" si="8"/>
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>0.10267720770882</v>
@@ -3892,7 +5376,7 @@
         <v>0.98054984773579501</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I35" s="1">
         <v>-12.7949281397071</v>
@@ -3913,7 +5397,7 @@
         <v>0.98209911942235095</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="1">
         <v>20.0547331337192</v>
@@ -3934,7 +5418,7 @@
         <v>-3.30188931210018E-3</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="Y35" s="1">
         <v>-246.014482242415</v>
@@ -3954,10 +5438,103 @@
       <c r="AD35" s="1">
         <v>0.88597332848323096</v>
       </c>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>6.9517125755755501E-104</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="AJ35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM35" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.8</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>1.7890078355279201E-35</v>
+      </c>
+      <c r="AO35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.128</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>3.7347340932423402E-105</v>
+      </c>
+      <c r="AQ35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AR35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AT35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU35" s="1">
+        <f t="shared" si="3"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>0.41793498700910697</v>
+      </c>
+      <c r="AW35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>0.43696454411012697</v>
+      </c>
+      <c r="AY35" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AZ35" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="BB35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC35" s="1">
+        <f t="shared" si="6"/>
+        <v>-246</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>6.2774119460418799E-51</v>
+      </c>
+      <c r="BE35" s="1">
+        <f t="shared" si="7"/>
+        <v>48.4</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>1.09099264618935E-57</v>
+      </c>
+      <c r="BG35" s="1">
+        <f t="shared" si="8"/>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="BH35" s="1">
+        <f t="shared" si="8"/>
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>9.0871349995915604E-2</v>
@@ -3972,7 +5549,7 @@
         <v>0.99349539560632905</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I36" s="1">
         <v>-4.6503058083171096</v>
@@ -3993,7 +5570,7 @@
         <v>0.98229164041303496</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="1">
         <v>21.596664596421299</v>
@@ -4014,7 +5591,7 @@
         <v>-7.5114647913367997E-3</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="Y36" s="1">
         <v>-189.17274342678701</v>
@@ -4034,8 +5611,101 @@
       <c r="AD36" s="1">
         <v>0.90589468681360696</v>
       </c>
-    </row>
-    <row r="38" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AF36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG36" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>3.4279860107403902E-132</v>
+      </c>
+      <c r="AI36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="AL36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM36" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.6500000000000004</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>1.2168141083266099E-13</v>
+      </c>
+      <c r="AO36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>1.9731062956936699E-105</v>
+      </c>
+      <c r="AQ36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AR36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="AT36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU36" s="1">
+        <f t="shared" si="3"/>
+        <v>21.6</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>0.61466240383968995</v>
+      </c>
+      <c r="AW36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>0.73757521526315495</v>
+      </c>
+      <c r="AY36" s="1">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="AZ36" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="BB36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC36" s="1">
+        <f t="shared" si="6"/>
+        <v>-189.2</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>1.64374750592261E-54</v>
+      </c>
+      <c r="BE36" s="1">
+        <f t="shared" si="7"/>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="BF36" s="1">
+        <v>1.29712298469141E-62</v>
+      </c>
+      <c r="BG36" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="BH36" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:60" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>46</v>
       </c>
@@ -4068,7 +5738,7 @@
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="40" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:60" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
@@ -4100,7 +5770,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
@@ -4150,7 +5820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>15</v>
       </c>
@@ -4206,7 +5876,7 @@
         <v>0.97262580972033197</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
@@ -4262,7 +5932,7 @@
         <v>0.92244572182471096</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
@@ -4318,7 +5988,7 @@
         <v>0.895669252111706</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>18</v>
       </c>
@@ -4374,7 +6044,7 @@
         <v>0.89004710598456005</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
@@ -4430,7 +6100,7 @@
         <v>0.83393634157086904</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>20</v>
       </c>
@@ -4879,6 +6549,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/R Model - Regressions/R Code Diss/Output_2/Coef Comparison.xlsx
+++ b/R Model - Regressions/R Code Diss/Output_2/Coef Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\EMAP\101 Dissertation\Dissertation\R Model - Regressions\R Code Diss\Output_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A072566F-4E20-40F9-AF78-D1D5F6806787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DBA38D-7EB8-42F5-890B-323D5423406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="79">
   <si>
     <t>Income</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>Fixed Effect</t>
+  </si>
+  <si>
+    <t>Price vs Spend</t>
+  </si>
+  <si>
+    <t>Rounded</t>
   </si>
 </sst>
 </file>
@@ -2559,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:BH55"/>
+  <dimension ref="B2:BH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB6" workbookViewId="0">
-      <selection activeCell="AZ24" sqref="AZ24:AZ36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3225,7 +3234,9 @@
       </c>
       <c r="AG19" s="10"/>
       <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
+      <c r="AI19" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ19" s="10"/>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
@@ -6548,6 +6559,535 @@
         <v>0.90753153357759997</v>
       </c>
     </row>
+    <row r="57" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="L57" s="11" t="str">
+        <f>B57</f>
+        <v>Fixed Effect</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" s="10"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="L59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8.1340436722211099E-2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2.2322831669083702E-3</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.98876817885740897</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.98876817885740897</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="1">
+        <f>ROUND(C62,3)</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N62" s="1">
+        <f>IF(D62&lt;0.001,D62,ROUND(D62,3))</f>
+        <v>2E-3</v>
+      </c>
+      <c r="O62" s="1">
+        <f>ROUND(E62,3)</f>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" ref="P62:P74" si="9">ROUND(F62,3)</f>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-1.54155221211186E-2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.8219801189543299E-3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.94531825099667299</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.94531825099667299</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" ref="M63:M74" si="10">ROUND(C63,3)</f>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" ref="N63:N74" si="11">IF(D63&lt;0.001,D63,ROUND(D63,3))</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" ref="O63:O74" si="12">ROUND(E63,3)</f>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="9"/>
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-3.86364837233149E-2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.50130860141798395</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.98202310957134598</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.98202310957134598</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.9E-2</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="11"/>
+        <v>0.501</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="9"/>
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.43565783861966201</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.5073438493991801E-19</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.92583061984888504</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.92583061984888504</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="10"/>
+        <v>0.436</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="11"/>
+        <v>4.5073438493991801E-19</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="12"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="9"/>
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.29975386459809</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.82201990971869E-5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.93735774318809695</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.93735774318809695</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="11"/>
+        <v>4.82201990971869E-5</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="12"/>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="9"/>
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5.1435515167862003E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.4743970828130602E-4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.84340988231132197</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.84340988231132197</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="10"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="11"/>
+        <v>2.4743970828130602E-4</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="12"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="P67" s="1">
+        <f t="shared" si="9"/>
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1">
+        <v>9.8212263557899707E-2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.71332331447331299</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.92593950406524494</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.92593950406524494</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="10"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="11"/>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="12"/>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="9"/>
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.12980695653320301</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.6612204122592601E-3</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.99391081533209602</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.99391081533209602</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="10"/>
+        <v>0.13</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="11"/>
+        <v>2E-3</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="12"/>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="9"/>
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.17510721608580501</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9.15797322249903E-32</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.96237960967050296</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.96237960967050296</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="10"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="11"/>
+        <v>9.15797322249903E-32</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="12"/>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="9"/>
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.609363797215979</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.5138482405986103E-7</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.98784317338551297</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.98784317338551297</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="10"/>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5138482405986103E-7</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="9"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="1">
+        <v>8.4162307257997601E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.48108615091743E-3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.68632119766886301</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.68632119766886301</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="10"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="12"/>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="9"/>
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.198451435401271</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1.6363101638211099E-10</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.98878138108855296</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.98878138108855296</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="10"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="11"/>
+        <v>1.6363101638211099E-10</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="9"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.145952638768509</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.4856280543513001E-3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.98914719319491295</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.98914719319491295</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="10"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="11"/>
+        <v>2E-3</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="9"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
